--- a/Base/Teams/Broncos/2021 Team Data.xlsx
+++ b/Base/Teams/Broncos/2021 Team Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Broncos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7DC971767E018559F94AF3F14FF17E85F47CDDCA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B581197E-0822-4B09-AD22-522B350AE1EB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -35,16 +41,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 2 1 6 0 2 7 3 3 5 2 0 7 2 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 1 3 9 11 2 15 7 1 1 4 20 -4 8 9 1 2 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3</t>
-  </si>
-  <si>
-    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 -2 7 5 64 4 13 15 26 10 7 4 10 6 15 7 5 -9 0 13 9 14 3 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1</t>
-  </si>
-  <si>
-    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 4 1 4 2 2 2 13 8 5 4 2 -7 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 10 17 -2 0 1 4 3 -8 7 4 2 5 11 31 0 3 4 3 0 5 -1 5 21 -2 15 5 25 1 7 5 3 1 2 6 1 23 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13</t>
-  </si>
-  <si>
-    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 16 18 3 4 6 24 36 8 6 4 5 9 11 12 14 2 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16</t>
+    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 2 1 6 0 2 7 3 3 5 2 0 7 2 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 1 3 9 11 2 15 7 1 1 4 20 -4 8 9 1 2 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1</t>
+  </si>
+  <si>
+    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 -2 7 5 64 4 13 15 26 10 7 4 10 6 15 7 5 -9 0 13 9 14 3 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7</t>
+  </si>
+  <si>
+    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 4 1 4 2 2 2 13 8 5 4 2 -7 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 10 17 -2 0 1 4 3 -8 7 4 2 5 11 31 0 3 4 3 0 5 -1 5 21 -2 15 5 25 1 7 5 3 1 2 6 1 23 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1</t>
+  </si>
+  <si>
+    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 16 18 3 4 6 24 36 8 6 4 5 9 11 12 14 2 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +173,13 @@
     <t>28 38 18 2 30 15 20 26 54 35</t>
   </si>
   <si>
-    <t>17 19 22 18 13 18 12 23 17 18 21 18 7</t>
-  </si>
-  <si>
-    <t>37 41 41 45 48 46 43 53 26 50 47 57 49 39 56 44 28 68 53 52 52 39 33 47 33 46 38 46 59 47 50 44 48 43 41 56 60 44 52 42 43 40</t>
-  </si>
-  <si>
-    <t>0 2 0 2 0 0 0 0 0 12 0 0 10 0 42 0 0 0 0 0 0 0 0 0 5 0 0 3 10 0 0 12 0 0 0 0 10 0 9 0 0 0</t>
-  </si>
-  <si>
-    <t>0 13 11 0 4 0 25 0 0 0 5 0 11 0 0 5 8 0 9 0 13 13 0 0 0 0 3 13 0 15 0 0 1 0 8 19 0 8 0 5</t>
+    <t>17 19 22 18 13 18 12 23 17 18 21 18 7 26 18</t>
+  </si>
+  <si>
+    <t>37 41 41 45 48 46 43 53 26 50 47 57 49 39 56 44 28 68 53 52 52 39 33 47 33 46 38 46 59 47 50 44 48 43 41 56 60 44 52 42 43 40 56 56 48</t>
+  </si>
+  <si>
+    <t>0 2 0 2 0 0 0 0 0 12 0 0 10 0 42 0 0 0 0 0 0 0 0 0 5 0 0 3 10 0 0 12 0 0 0 0 10 0 9 0 0 0 10 3 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -204,13 +207,16 @@
   </si>
   <si>
     <t>Offside</t>
+  </si>
+  <si>
+    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +279,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -319,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,9 +365,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,6 +417,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,14 +610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -603,14 +653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -660,7 +710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -668,28 +718,28 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G2">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,57 +751,57 @@
         <v>129</v>
       </c>
       <c r="N2">
+        <v>14</v>
+      </c>
+      <c r="O2">
+        <v>21</v>
+      </c>
+      <c r="P2">
         <v>13</v>
-      </c>
-      <c r="O2">
-        <v>15</v>
-      </c>
-      <c r="P2">
-        <v>10</v>
       </c>
       <c r="Q2">
         <v>361</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="M3">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="N3">
         <v>18</v>
@@ -763,7 +813,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>311</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -772,14 +822,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -808,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -840,7 +890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -878,14 +928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,36 +985,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,7 +1026,7 @@
         <v>127</v>
       </c>
       <c r="N2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2">
         <v>18</v>
@@ -988,45 +1038,45 @@
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>59</v>
+      </c>
+      <c r="G3">
         <v>25</v>
       </c>
-      <c r="F3">
-        <v>53</v>
-      </c>
-      <c r="G3">
+      <c r="H3">
         <v>23</v>
       </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
       <c r="I3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="M3">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="N3">
         <v>19</v>
@@ -1038,7 +1088,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>290</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -1047,14 +1097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1115,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1153,14 +1203,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1210,18 +1262,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1233,7 +1285,7 @@
         <v>241</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1245,10 +1297,10 @@
         <v>110</v>
       </c>
       <c r="L2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2">
         <v>53</v>
@@ -1263,12 +1315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1277,7 +1329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1291,7 +1343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1302,10 +1354,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1319,28 +1371,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1357,18 +1409,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -1380,14 +1432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,54 +1450,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Broncos/2021 Team Data.xlsx
+++ b/Base/Teams/Broncos/2021 Team Data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Broncos/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_7DC971767E018559F94AF3F14FF17E85F47CDDCA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B581197E-0822-4B09-AD22-522B350AE1EB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -41,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 2 1 6 0 2 7 3 3 5 2 0 7 2 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 1 3 9 11 2 15 7 1 1 4 20 -4 8 9 1 2 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1</t>
-  </si>
-  <si>
-    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 -2 7 5 64 4 13 15 26 10 7 4 10 6 15 7 5 -9 0 13 9 14 3 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7</t>
-  </si>
-  <si>
-    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 4 1 4 2 2 2 13 8 5 4 2 -7 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 10 17 -2 0 1 4 3 -8 7 4 2 5 11 31 0 3 4 3 0 5 -1 5 21 -2 15 5 25 1 7 5 3 1 2 6 1 23 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1</t>
-  </si>
-  <si>
-    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 16 18 3 4 6 24 36 8 6 4 5 9 11 12 14 2 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4</t>
+    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 2 1 6 0 2 7 3 3 5 2 0 7 2 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 1 3 9 11 2 15 7 1 1 4 20 -4 8 9 1 2 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 11 5 3 1 13 9 1 5 6 3 3 9 4 1 3 2 2 1 3 3 -1 6 16 5 5 5 9 14 -1 1 1 6 8 3 4 -1 10 5 1</t>
+  </si>
+  <si>
+    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 -2 7 5 64 4 13 15 26 10 7 4 10 6 15 7 5 -9 0 13 9 14 3 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 13 32 8 9 8 6 7 7 4 8 7 9 10 16 5 5 4</t>
+  </si>
+  <si>
+    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 4 1 4 2 2 2 13 8 5 4 2 -7 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 10 17 -2 0 1 4 3 -8 7 4 2 5 11 31 0 3 4 3 0 5 -1 5 21 -2 15 5 25 1 7 5 3 1 2 6 1 23 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 5 1 13 35 5 9 3 4 4 2 3 5 4 -3 7 3 3 6 -3 8</t>
+  </si>
+  <si>
+    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 16 18 3 4 6 24 36 8 6 4 5 9 11 12 14 2 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 1 13 7 7 2 19 7 5 20 11 -2 9 9 11 13 4 6 14 8 14 7 2</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -176,10 +170,13 @@
     <t>17 19 22 18 13 18 12 23 17 18 21 18 7 26 18</t>
   </si>
   <si>
-    <t>37 41 41 45 48 46 43 53 26 50 47 57 49 39 56 44 28 68 53 52 52 39 33 47 33 46 38 46 59 47 50 44 48 43 41 56 60 44 52 42 43 40 56 56 48</t>
-  </si>
-  <si>
-    <t>0 2 0 2 0 0 0 0 0 12 0 0 10 0 42 0 0 0 0 0 0 0 0 0 5 0 0 3 10 0 0 12 0 0 0 0 10 0 9 0 0 0 10 3 0</t>
+    <t>37 41 41 45 48 46 43 53 26 50 47 57 49 39 56 44 28 68 53 52 52 39 33 47 33 46 38 46 59 47 50 44 48 43 41 56 60 44 52 42 43 40 56 56 48 47 41 42</t>
+  </si>
+  <si>
+    <t>0 2 0 2 0 0 0 0 0 12 0 0 10 0 42 0 0 0 0 0 0 0 0 0 5 0 0 3 10 0 0 12 0 0 0 0 10 0 9 0 0 0 10 3 0 0 0 -4</t>
+  </si>
+  <si>
+    <t>0 0 2 11</t>
   </si>
   <si>
     <t>INT</t>
@@ -207,16 +204,13 @@
   </si>
   <si>
     <t>Offside</t>
-  </si>
-  <si>
-    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,14 +273,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -333,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,27 +351,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,24 +385,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,14 +560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -636,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -653,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -710,7 +660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -718,19 +668,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -739,39 +689,39 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="M2">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="N2">
         <v>14</v>
       </c>
       <c r="O2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q2">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -780,19 +730,19 @@
         <v>25</v>
       </c>
       <c r="F3">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J3">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -804,7 +754,7 @@
         <v>142</v>
       </c>
       <c r="N3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -822,14 +772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -890,7 +840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -928,14 +878,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,7 +935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -993,52 +943,52 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="M2">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="N2">
         <v>8</v>
       </c>
       <c r="O2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q2">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1046,7 +996,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1055,19 +1005,19 @@
         <v>27</v>
       </c>
       <c r="F3">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G3">
+        <v>31</v>
+      </c>
+      <c r="H3">
         <v>25</v>
       </c>
-      <c r="H3">
-        <v>23</v>
-      </c>
       <c r="I3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1079,7 +1029,7 @@
         <v>106</v>
       </c>
       <c r="N3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1097,14 +1047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1203,16 +1153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1262,27 +1210,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1303,10 +1251,10 @@
         <v>50</v>
       </c>
       <c r="N2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1315,12 +1263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1329,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1343,7 +1291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1354,10 +1302,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1371,28 +1319,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1400,16 +1348,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1420,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -1432,14 +1380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1450,51 +1398,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>1</v>

--- a/Base/Teams/Broncos/2021 Team Data.xlsx
+++ b/Base/Teams/Broncos/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 2 1 6 0 2 7 3 3 5 2 0 7 2 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 1 3 9 11 2 15 7 1 1 4 20 -4 8 9 1 2 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 11 5 3 1 13 9 1 5 6 3 3 9 4 1 3 2 2 1 3 3 -1 6 16 5 5 5 9 14 -1 1 1 6 8 3 4 -1 10 5 1</t>
-  </si>
-  <si>
-    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 -2 7 5 64 4 13 15 26 10 7 4 10 6 15 7 5 -9 0 13 9 14 3 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 13 32 8 9 8 6 7 7 4 8 7 9 10 16 5 5 4</t>
-  </si>
-  <si>
-    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 4 1 4 2 2 2 13 8 5 4 2 -7 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 10 17 -2 0 1 4 3 -8 7 4 2 5 11 31 0 3 4 3 0 5 -1 5 21 -2 15 5 25 1 7 5 3 1 2 6 1 23 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 5 1 13 35 5 9 3 4 4 2 3 5 4 -3 7 3 3 6 -3 8</t>
-  </si>
-  <si>
-    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 16 18 3 4 6 24 36 8 6 4 5 9 11 12 14 2 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 1 13 7 7 2 19 7 5 20 11 -2 9 9 11 13 4 6 14 8 14 7 2</t>
+    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 2 1 6 0 2 7 3 3 5 2 0 7 2 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 1 3 9 11 2 15 7 1 1 4 20 -4 8 9 1 2 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 11 5 3 1 13 9 1 5 6 3 3 9 4 1 3 2 2 1 3 3 -1 6 16 5 5 5 9 14 -1 1 1 6 8 3 4 -1 10 5 1 4 2 4 4 3 5 -1 5 2 2 1 3 2 6 7 2 2 5 6 14 4 5 7 1 0 -1 7 7 13 1 -2 10 1 2</t>
+  </si>
+  <si>
+    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 -2 7 5 64 4 13 15 26 10 7 4 10 6 15 7 5 -9 0 13 9 14 3 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 13 32 8 9 8 6 7 7 4 8 7 9 10 16 5 5 4 5 8 7 28 -1 10 3 11 -1 8 9 11 8 25 2 24 24 5</t>
+  </si>
+  <si>
+    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 4 1 4 2 2 2 13 8 5 4 2 -7 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 10 17 -2 0 1 4 3 -8 7 4 2 5 11 31 0 3 4 3 0 5 -1 5 21 -2 15 5 25 1 7 5 3 1 2 6 1 23 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 5 1 13 35 5 9 3 4 4 2 3 5 4 -3 7 3 3 6 -3 8 6 0 2 4 5 5 6 5 1 -1 5 8 4 3 5 22 2 12 1 8 2 4 1 1 3</t>
+  </si>
+  <si>
+    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 16 18 3 4 6 24 36 8 6 4 5 9 11 12 14 2 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 1 13 7 7 2 19 7 5 20 11 -2 9 9 11 13 4 6 14 8 14 7 2 6 2 6 17 2 2 9 8 4 19 3 56 4 4 15</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>70 70 66 67 79 55 67 65 66 69</t>
-  </si>
-  <si>
-    <t>28 38 18 2 30 15 20 26 54 35</t>
+    <t>70 70 66 67 79 55 67 65 66 69 71</t>
+  </si>
+  <si>
+    <t>28 38 18 2 30 15 20 26 54 35 23</t>
   </si>
   <si>
     <t>17 19 22 18 13 18 12 23 17 18 21 18 7 26 18</t>
   </si>
   <si>
-    <t>37 41 41 45 48 46 43 53 26 50 47 57 49 39 56 44 28 68 53 52 52 39 33 47 33 46 38 46 59 47 50 44 48 43 41 56 60 44 52 42 43 40 56 56 48 47 41 42</t>
-  </si>
-  <si>
-    <t>0 2 0 2 0 0 0 0 0 12 0 0 10 0 42 0 0 0 0 0 0 0 0 0 5 0 0 3 10 0 0 12 0 0 0 0 10 0 9 0 0 0 10 3 0 0 0 -4</t>
-  </si>
-  <si>
-    <t>0 0 2 11</t>
+    <t>37 41 41 45 48 46 43 53 26 50 47 57 49 39 56 44 28 68 53 52 52 39 33 47 33 46 38 46 59 47 50 44 48 43 41 56 60 44 52 42 43 40 56 56 48 47 41 42 51 57 44 48 63 46</t>
+  </si>
+  <si>
+    <t>0 2 0 2 0 0 0 0 0 12 0 0 10 0 42 0 0 0 0 0 0 0 0 0 5 0 0 3 10 0 0 12 0 0 0 0 10 0 9 0 0 0 10 3 0 0 0 -4 12 0 0 5 0 5</t>
+  </si>
+  <si>
+    <t>0 0 2 11 0 0 0 0 0 12 18</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -677,10 +677,10 @@
         <v>16</v>
       </c>
       <c r="F2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -689,28 +689,28 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="M2">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="N2">
         <v>14</v>
       </c>
       <c r="O2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2">
         <v>14</v>
       </c>
       <c r="Q2">
-        <v>429</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>142</v>
       </c>
       <c r="N3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -952,28 +952,28 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="M2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="N2">
         <v>8</v>
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="Q2">
-        <v>430</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>106</v>
       </c>
       <c r="N3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1251,10 +1251,10 @@
         <v>50</v>
       </c>
       <c r="N2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1351,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -1371,7 +1371,7 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Base/Teams/Broncos/2021 Team Data.xlsx
+++ b/Base/Teams/Broncos/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 2 1 6 0 2 7 3 3 5 2 0 7 2 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 1 3 9 11 2 15 7 1 1 4 20 -4 8 9 1 2 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 11 5 3 1 13 9 1 5 6 3 3 9 4 1 3 2 2 1 3 3 -1 6 16 5 5 5 9 14 -1 1 1 6 8 3 4 -1 10 5 1 4 2 4 4 3 5 -1 5 2 2 1 3 2 6 7 2 2 5 6 14 4 5 7 1 0 -1 7 7 13 1 -2 10 1 2</t>
-  </si>
-  <si>
-    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 -2 7 5 64 4 13 15 26 10 7 4 10 6 15 7 5 -9 0 13 9 14 3 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 13 32 8 9 8 6 7 7 4 8 7 9 10 16 5 5 4 5 8 7 28 -1 10 3 11 -1 8 9 11 8 25 2 24 24 5</t>
-  </si>
-  <si>
-    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 4 1 4 2 2 2 13 8 5 4 2 -7 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 10 17 -2 0 1 4 3 -8 7 4 2 5 11 31 0 3 4 3 0 5 -1 5 21 -2 15 5 25 1 7 5 3 1 2 6 1 23 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 5 1 13 35 5 9 3 4 4 2 3 5 4 -3 7 3 3 6 -3 8 6 0 2 4 5 5 6 5 1 -1 5 8 4 3 5 22 2 12 1 8 2 4 1 1 3</t>
-  </si>
-  <si>
-    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 16 18 3 4 6 24 36 8 6 4 5 9 11 12 14 2 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 1 13 7 7 2 19 7 5 20 11 -2 9 9 11 13 4 6 14 8 14 7 2 6 2 6 17 2 2 9 8 4 19 3 56 4 4 15</t>
+    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 2 1 6 0 2 7 3 3 5 2 0 7 2 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 1 3 9 11 2 15 7 1 1 4 20 -4 8 9 1 2 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 11 5 3 1 13 9 1 5 6 3 3 9 4 1 3 2 2 1 3 3 -1 6 16 5 5 5 9 14 -1 1 1 6 8 3 4 -1 10 5 1 4 2 4 4 3 5 -1 5 2 2 1 3 2 6 7 2 2 5 6 14 4 5 7 1 0 -1 7 7 13 1 -2 10 1 2 4 5 1 1 1 3 1 3 -4 1 -3 1 3 0 -4 5</t>
+  </si>
+  <si>
+    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 -2 7 5 64 4 13 15 26 10 7 4 10 6 15 7 5 -9 0 13 9 14 3 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 13 32 8 9 8 6 7 7 4 8 7 9 10 16 5 5 4 5 8 7 28 -1 10 3 11 -1 8 9 11 8 25 2 24 24 5 5 2 7 1 40 4 14 6 8 20 5 13 4 8</t>
+  </si>
+  <si>
+    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 4 1 4 2 2 2 13 8 5 4 2 -7 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 10 17 -2 0 1 4 3 -8 7 4 2 5 11 31 0 3 4 3 0 5 -1 5 21 -2 15 5 25 1 7 5 3 1 2 6 1 23 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 5 1 13 35 5 9 3 4 4 2 3 5 4 -3 7 3 3 6 -3 8 6 0 2 4 5 5 6 5 1 -1 5 8 4 3 5 22 2 12 1 8 2 4 1 1 3 3 3 7 4 6 5 3 3 -2 0 -4 8 7 3 8 19 4 8 5 5 4 8 -4 3 0 4 4 4 10 6 0 4 13 3 5</t>
+  </si>
+  <si>
+    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 16 18 3 4 6 24 36 8 6 4 5 9 11 12 14 2 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 1 13 7 7 2 19 7 5 20 11 -2 9 9 11 13 4 6 14 8 14 7 2 6 2 6 17 2 2 9 8 4 19 3 56 4 4 15 8 5 16 18 6 4 0 15 10 20 -5 5 7 13 12 12 18 6 3 28</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>70 70 66 67 79 55 67 65 66 69 71</t>
-  </si>
-  <si>
-    <t>28 38 18 2 30 15 20 26 54 35 23</t>
-  </si>
-  <si>
-    <t>17 19 22 18 13 18 12 23 17 18 21 18 7 26 18</t>
-  </si>
-  <si>
-    <t>37 41 41 45 48 46 43 53 26 50 47 57 49 39 56 44 28 68 53 52 52 39 33 47 33 46 38 46 59 47 50 44 48 43 41 56 60 44 52 42 43 40 56 56 48 47 41 42 51 57 44 48 63 46</t>
-  </si>
-  <si>
-    <t>0 2 0 2 0 0 0 0 0 12 0 0 10 0 42 0 0 0 0 0 0 0 0 0 5 0 0 3 10 0 0 12 0 0 0 0 10 0 9 0 0 0 10 3 0 0 0 -4 12 0 0 5 0 5</t>
-  </si>
-  <si>
-    <t>0 0 2 11 0 0 0 0 0 12 18</t>
+    <t>70 70 66 67 79 55 67 65 66 69 71 62</t>
+  </si>
+  <si>
+    <t>28 38 18 2 30 15 20 26 54 35 23 23</t>
+  </si>
+  <si>
+    <t>17 19 22 18 13 18 12 23 17 18 21 18 7 26 18 18</t>
+  </si>
+  <si>
+    <t>37 41 41 45 48 46 43 53 26 50 47 57 49 39 56 44 28 68 53 52 52 39 33 47 33 46 38 46 59 47 50 44 48 43 41 56 60 44 52 42 43 40 56 56 48 47 41 42 51 57 44 48 63 46 54 28 56 40 45</t>
+  </si>
+  <si>
+    <t>0 2 0 2 0 0 0 0 0 12 0 0 10 0 42 0 0 0 0 0 0 0 0 0 5 0 0 3 10 0 0 12 0 0 0 0 10 0 9 0 0 0 10 3 0 0 0 -4 12 0 0 5 0 5 0 0 6 0 0</t>
+  </si>
+  <si>
+    <t>0 0 2 11 0 0 0 0 0 12 18 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,31 +665,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>165</v>
       </c>
       <c r="N2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q2">
         <v>505</v>
@@ -721,25 +721,25 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G3">
         <v>26</v>
       </c>
       <c r="H3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J3">
         <v>38</v>
@@ -748,10 +748,10 @@
         <v>26</v>
       </c>
       <c r="L3">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="M3">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="N3">
         <v>22</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>388</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>9</v>
       </c>
       <c r="F2">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -964,7 +964,7 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>166</v>
       </c>
       <c r="N2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q2">
         <v>484</v>
@@ -996,7 +996,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1005,28 +1005,28 @@
         <v>29</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="M3">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="N3">
         <v>24</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>347</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1245,16 +1245,16 @@
         <v>110</v>
       </c>
       <c r="L2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1365,13 +1365,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>

--- a/Base/Teams/Broncos/2021 Team Data.xlsx
+++ b/Base/Teams/Broncos/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 2 1 6 0 2 7 3 3 5 2 0 7 2 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 1 3 9 11 2 15 7 1 1 4 20 -4 8 9 1 2 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 11 5 3 1 13 9 1 5 6 3 3 9 4 1 3 2 2 1 3 3 -1 6 16 5 5 5 9 14 -1 1 1 6 8 3 4 -1 10 5 1 4 2 4 4 3 5 -1 5 2 2 1 3 2 6 7 2 2 5 6 14 4 5 7 1 0 -1 7 7 13 1 -2 10 1 2 4 5 1 1 1 3 1 3 -4 1 -3 1 3 0 -4 5</t>
-  </si>
-  <si>
-    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 -2 7 5 64 4 13 15 26 10 7 4 10 6 15 7 5 -9 0 13 9 14 3 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 13 32 8 9 8 6 7 7 4 8 7 9 10 16 5 5 4 5 8 7 28 -1 10 3 11 -1 8 9 11 8 25 2 24 24 5 5 2 7 1 40 4 14 6 8 20 5 13 4 8</t>
-  </si>
-  <si>
-    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 4 1 4 2 2 2 13 8 5 4 2 -7 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 10 17 -2 0 1 4 3 -8 7 4 2 5 11 31 0 3 4 3 0 5 -1 5 21 -2 15 5 25 1 7 5 3 1 2 6 1 23 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 5 1 13 35 5 9 3 4 4 2 3 5 4 -3 7 3 3 6 -3 8 6 0 2 4 5 5 6 5 1 -1 5 8 4 3 5 22 2 12 1 8 2 4 1 1 3 3 3 7 4 6 5 3 3 -2 0 -4 8 7 3 8 19 4 8 5 5 4 8 -4 3 0 4 4 4 10 6 0 4 13 3 5</t>
-  </si>
-  <si>
-    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 16 18 3 4 6 24 36 8 6 4 5 9 11 12 14 2 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 1 13 7 7 2 19 7 5 20 11 -2 9 9 11 13 4 6 14 8 14 7 2 6 2 6 17 2 2 9 8 4 19 3 56 4 4 15 8 5 16 18 6 4 0 15 10 20 -5 5 7 13 12 12 18 6 3 28</t>
+    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 2 1 6 0 2 7 3 3 5 2 0 7 2 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 1 3 9 11 2 15 7 1 1 4 20 -4 8 9 1 2 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 11 5 3 1 13 9 1 5 6 3 3 9 4 1 3 2 2 1 3 3 -1 6 16 5 5 5 9 14 -1 1 1 6 8 3 4 -1 10 5 1 4 2 4 4 3 5 -1 5 2 2 1 3 2 6 7 2 2 5 6 14 4 5 7 1 0 -1 7 7 13 1 -2 10 1 2 4 5 1 1 1 3 1 3 -4 1 -3 1 3 0 -4 5 3 6 7 -3 5 5 4 5 2 0 1 0 6 12 4 7 4 -4 -4 2 2 0 4 5 2 5</t>
+  </si>
+  <si>
+    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 -2 7 5 64 4 13 15 26 10 7 4 10 6 15 7 5 -9 0 13 9 14 3 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 13 32 8 9 8 6 7 7 4 8 7 9 10 16 5 5 4 5 8 7 28 -1 10 3 11 -1 8 9 11 8 25 2 24 24 5 5 2 7 1 40 4 14 6 8 20 5 13 4 8 15 0 44 18 -1 24 8 35 7 9 5 11 6 2 16 7 34 5</t>
+  </si>
+  <si>
+    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 4 1 4 2 2 2 13 8 5 4 2 -7 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 10 17 -2 0 1 4 3 -8 7 4 2 5 11 31 0 3 4 3 0 5 -1 5 21 -2 15 5 25 1 7 5 3 1 2 6 1 23 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 5 1 13 35 5 9 3 4 4 2 3 5 4 -3 7 3 3 6 -3 8 6 0 2 4 5 5 6 5 1 -1 5 8 4 3 5 22 2 12 1 8 2 4 1 1 3 3 3 7 4 6 5 3 3 -2 0 -4 8 7 3 8 19 4 8 5 5 4 8 -4 3 0 4 4 4 10 6 0 4 13 3 5 4 9 -1 2 14 3 2 6 4 3 1 6 9 6 0 2 0 -1 1 2 -4 2 7 4 5 -4 2 5 7 2 4 1 3</t>
+  </si>
+  <si>
+    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 16 18 3 4 6 24 36 8 6 4 5 9 11 12 14 2 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 1 13 7 7 2 19 7 5 20 11 -2 9 9 11 13 4 6 14 8 14 7 2 6 2 6 17 2 2 9 8 4 19 3 56 4 4 15 8 5 16 18 6 4 0 15 10 20 -5 5 7 13 12 12 18 6 3 28 10 8 10 11 8 3 6 8 3 5 9 3 8 7 40 16 5 5 45 8 8</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>70 70 66 67 79 55 67 65 66 69 71 62</t>
-  </si>
-  <si>
-    <t>28 38 18 2 30 15 20 26 54 35 23 23</t>
+    <t>70 70 66 67 79 55 67 65 66 69 71 62 67 66</t>
+  </si>
+  <si>
+    <t>28 38 18 2 30 15 20 26 54 35 23 23 47 1</t>
   </si>
   <si>
     <t>17 19 22 18 13 18 12 23 17 18 21 18 7 26 18 18</t>
   </si>
   <si>
-    <t>37 41 41 45 48 46 43 53 26 50 47 57 49 39 56 44 28 68 53 52 52 39 33 47 33 46 38 46 59 47 50 44 48 43 41 56 60 44 52 42 43 40 56 56 48 47 41 42 51 57 44 48 63 46 54 28 56 40 45</t>
-  </si>
-  <si>
-    <t>0 2 0 2 0 0 0 0 0 12 0 0 10 0 42 0 0 0 0 0 0 0 0 0 5 0 0 3 10 0 0 12 0 0 0 0 10 0 9 0 0 0 10 3 0 0 0 -4 12 0 0 5 0 5 0 0 6 0 0</t>
-  </si>
-  <si>
-    <t>0 0 2 11 0 0 0 0 0 12 18 0 0</t>
+    <t>37 41 41 45 48 46 43 53 26 50 47 57 49 39 56 44 28 68 53 52 52 39 33 47 33 46 38 46 59 47 50 44 48 43 41 56 60 44 52 42 43 40 56 56 48 47 41 42 51 57 44 48 63 46 54 28 56 40 45 41 56 40</t>
+  </si>
+  <si>
+    <t>0 2 0 2 0 0 0 0 0 12 0 0 10 0 42 0 0 0 0 0 0 0 0 0 5 0 0 3 10 0 0 12 0 0 0 0 10 0 9 0 0 0 10 3 0 0 0 -4 12 0 0 5 0 5 0 0 6 0 0 0 1 4</t>
+  </si>
+  <si>
+    <t>0 0 2 11 0 0 0 0 0 12 18 0 0 0 4</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,31 +665,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>165</v>
       </c>
       <c r="N2">
+        <v>17</v>
+      </c>
+      <c r="O2">
+        <v>28</v>
+      </c>
+      <c r="P2">
         <v>16</v>
-      </c>
-      <c r="O2">
-        <v>24</v>
-      </c>
-      <c r="P2">
-        <v>15</v>
       </c>
       <c r="Q2">
         <v>505</v>
@@ -721,37 +721,37 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>35</v>
       </c>
       <c r="I3">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="M3">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="N3">
         <v>22</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>430</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>9</v>
       </c>
       <c r="F2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -964,7 +964,7 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -979,10 +979,10 @@
         <v>10</v>
       </c>
       <c r="O2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q2">
         <v>484</v>
@@ -996,37 +996,37 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G3">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>27</v>
       </c>
       <c r="I3">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J3">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="M3">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="N3">
         <v>24</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>411</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L2">
         <v>61</v>
@@ -1257,10 +1257,10 @@
         <v>31</v>
       </c>
       <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
         <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1371,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Broncos/2021 Team Data.xlsx
+++ b/Base/Teams/Broncos/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 2 1 6 0 2 7 3 3 5 2 0 7 2 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 1 3 9 11 2 15 7 1 1 4 20 -4 8 9 1 2 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 11 5 3 1 13 9 1 5 6 3 3 9 4 1 3 2 2 1 3 3 -1 6 16 5 5 5 9 14 -1 1 1 6 8 3 4 -1 10 5 1 4 2 4 4 3 5 -1 5 2 2 1 3 2 6 7 2 2 5 6 14 4 5 7 1 0 -1 7 7 13 1 -2 10 1 2 4 5 1 1 1 3 1 3 -4 1 -3 1 3 0 -4 5 3 6 7 -3 5 5 4 5 2 0 1 0 6 12 4 7 4 -4 -4 2 2 0 4 5 2 5</t>
-  </si>
-  <si>
-    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 -2 7 5 64 4 13 15 26 10 7 4 10 6 15 7 5 -9 0 13 9 14 3 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 13 32 8 9 8 6 7 7 4 8 7 9 10 16 5 5 4 5 8 7 28 -1 10 3 11 -1 8 9 11 8 25 2 24 24 5 5 2 7 1 40 4 14 6 8 20 5 13 4 8 15 0 44 18 -1 24 8 35 7 9 5 11 6 2 16 7 34 5</t>
-  </si>
-  <si>
-    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 4 1 4 2 2 2 13 8 5 4 2 -7 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 10 17 -2 0 1 4 3 -8 7 4 2 5 11 31 0 3 4 3 0 5 -1 5 21 -2 15 5 25 1 7 5 3 1 2 6 1 23 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 5 1 13 35 5 9 3 4 4 2 3 5 4 -3 7 3 3 6 -3 8 6 0 2 4 5 5 6 5 1 -1 5 8 4 3 5 22 2 12 1 8 2 4 1 1 3 3 3 7 4 6 5 3 3 -2 0 -4 8 7 3 8 19 4 8 5 5 4 8 -4 3 0 4 4 4 10 6 0 4 13 3 5 4 9 -1 2 14 3 2 6 4 3 1 6 9 6 0 2 0 -1 1 2 -4 2 7 4 5 -4 2 5 7 2 4 1 3</t>
-  </si>
-  <si>
-    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 16 18 3 4 6 24 36 8 6 4 5 9 11 12 14 2 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 1 13 7 7 2 19 7 5 20 11 -2 9 9 11 13 4 6 14 8 14 7 2 6 2 6 17 2 2 9 8 4 19 3 56 4 4 15 8 5 16 18 6 4 0 15 10 20 -5 5 7 13 12 12 18 6 3 28 10 8 10 11 8 3 6 8 3 5 9 3 8 7 40 16 5 5 45 8 8</t>
+    <t>-1 2 5 2 9 2 2 -2 8 7 3 0 5 4 6 6 2 2 12 3 8 0 2 4 70 3 -1 2 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 2 1 6 0 2 7 3 3 5 2 0 7 2 8 4 2 6 2 2 7 1 1 7 2 -1 5 3 0 11 14 1 7 1 -2 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 1 3 9 11 2 15 7 1 1 4 20 -4 8 9 1 2 12 2 10 2 4 2 4 2 -2 11 12 8 16 -1 9 1 2 2 6 6 2 2 0 3 0 7 4 3 8 4 4 3 9 -1 1 14 2 9 6 7 2 14 3 0 1 11 3 5 5 -1 5 4 8 9 7 2 6 2 16 1 11 5 3 1 13 9 1 5 6 3 3 9 4 1 3 2 2 1 3 3 -1 6 16 5 5 5 9 14 -1 1 1 6 8 3 4 -1 10 5 1 4 2 4 4 3 5 -1 5 2 2 1 3 2 6 7 2 2 5 6 14 4 5 7 1 0 -1 7 7 13 1 -2 10 1 2 4 5 1 1 1 3 1 3 -4 1 -3 1 3 0 -4 5 3 6 7 -3 5 5 4 5 2 0 1 0 6 12 4 7 4 -4 -4 2 2 0 4 5 2 5 6 2 6 1 9 6 1 5 29 6 5 3 0 3 23 -1 4 3 -3 47 7 0 5 15 8 -4 4 1</t>
+  </si>
+  <si>
+    <t>15 13 7 6 1 9 5 25 -4 5 11 6 2 6 17 16 2 10 6 8 20 7 22 13 3 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 1 31 5 31 12 19 19 15 7 3 4 -4 9 2 11 14 9 18 7 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 -2 7 5 64 4 13 15 26 10 7 4 10 6 15 7 5 -9 0 13 9 14 3 3 13 19 5 7 12 7 5 2 12 1 12 14 42 1 36 10 10 6 3 2 34 5 9 5 8 11 9 13 19 12 6 19 10 7 13 32 8 9 8 6 7 7 4 8 7 9 10 16 5 5 4 5 8 7 28 -1 10 3 11 -1 8 9 11 8 25 2 24 24 5 5 2 7 1 40 4 14 6 8 20 5 13 4 8 15 0 44 18 -1 24 8 35 7 9 5 11 6 2 16 7 34 5 6 16 11 8 2 31 11 6 13 7 10 29 28</t>
+  </si>
+  <si>
+    <t>5 -2 4 2 -1 1 5 2 3 7 3 5 2 4 2 6 1 4 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 4 1 4 2 2 2 13 8 5 4 2 -7 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 0 2 10 4 3 2 2 5 3 6 5 0 4 4 7 0 4 5 13 12 12 4 4 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 10 17 -2 0 1 4 3 -8 7 4 2 5 11 31 0 3 4 3 0 5 -1 5 21 -2 15 5 25 1 7 5 3 1 2 6 1 23 1 1 7 5 6 3 3 5 1 5 -1 2 13 5 2 1 13 10 2 3 5 10 4 2 12 4 2 0 5 4 2 4 4 4 4 6 7 -4 1 5 1 13 35 5 9 3 4 4 2 3 5 4 -3 7 3 3 6 -3 8 6 0 2 4 5 5 6 5 1 -1 5 8 4 3 5 22 2 12 1 8 2 4 1 1 3 3 3 7 4 6 5 3 3 -2 0 -4 8 7 3 8 19 4 8 5 5 4 8 -4 3 0 4 4 4 10 6 0 4 13 3 5 4 9 -1 2 14 3 2 6 4 3 1 6 9 6 0 2 0 -1 1 2 -4 2 7 4 5 -4 2 5 7 2 4 1 3 0 11 3 3 3 11 3 0 1 6 10 5 6 5 25 5 3 6 7 4 6 4 4 2 5</t>
+  </si>
+  <si>
+    <t>42 -6 4 17 1 6 8 37 2 15 20 8 17 14 6 16 16 6 9 15 8 6 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 8 27 17 2 13 -2 20 4 12 1 17 14 7 5 14 4 23 20 19 5 22 14 3 1 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 16 18 3 4 6 24 36 8 6 4 5 9 11 12 14 2 7 24 -2 10 5 9 13 6 18 14 12 9 11 13 17 8 8 4 2 7 13 18 34 9 5 -2 16 9 9 12 13 9 29 14 -7 12 6 14 14 38 8 4 1 13 7 7 2 19 7 5 20 11 -2 9 9 11 13 4 6 14 8 14 7 2 6 2 6 17 2 2 9 8 4 19 3 56 4 4 15 8 5 16 18 6 4 0 15 10 20 -5 5 7 13 12 12 18 6 3 28 10 8 10 11 8 3 6 8 3 5 9 3 8 7 40 16 5 5 45 8 8 3 21 11 4 9 4 3 3 11 11 10 11 2 11 17 10 7 14 5 10 4 1 19 4 44 8 12</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>28 38 18 2 30 15 20 26 54 35 23 23 47 1</t>
   </si>
   <si>
-    <t>17 19 22 18 13 18 12 23 17 18 21 18 7 26 18 18</t>
-  </si>
-  <si>
-    <t>37 41 41 45 48 46 43 53 26 50 47 57 49 39 56 44 28 68 53 52 52 39 33 47 33 46 38 46 59 47 50 44 48 43 41 56 60 44 52 42 43 40 56 56 48 47 41 42 51 57 44 48 63 46 54 28 56 40 45 41 56 40</t>
-  </si>
-  <si>
-    <t>0 2 0 2 0 0 0 0 0 12 0 0 10 0 42 0 0 0 0 0 0 0 0 0 5 0 0 3 10 0 0 12 0 0 0 0 10 0 9 0 0 0 10 3 0 0 0 -4 12 0 0 5 0 5 0 0 6 0 0 0 1 4</t>
-  </si>
-  <si>
-    <t>0 0 2 11 0 0 0 0 0 12 18 0 0 0 4</t>
+    <t>17 19 22 18 13 18 12 23 17 18 21 18 7 26 18 18 0</t>
+  </si>
+  <si>
+    <t>37 41 41 45 48 46 43 53 26 50 47 57 49 39 56 44 28 68 53 52 52 39 33 47 33 46 38 46 59 47 50 44 48 43 41 56 60 44 52 42 43 40 56 56 48 47 41 42 51 57 44 48 63 46 54 28 56 40 45 41 56 40 65 44 36</t>
+  </si>
+  <si>
+    <t>0 2 0 2 0 0 0 0 0 12 0 0 10 0 42 0 0 0 0 0 0 0 0 0 5 0 0 3 10 0 0 12 0 0 0 0 10 0 9 0 0 0 10 3 0 0 0 -4 12 0 0 5 0 5 0 0 6 0 0 0 1 4 5 0 0</t>
+  </si>
+  <si>
+    <t>0 0 2 11 0 0 0 0 0 12 18 0 0 0 4 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -677,19 +677,19 @@
         <v>18</v>
       </c>
       <c r="F2">
+        <v>69</v>
+      </c>
+      <c r="G2">
         <v>64</v>
-      </c>
-      <c r="G2">
-        <v>59</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>165</v>
       </c>
       <c r="N2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O2">
         <v>28</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I3">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J3">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="M3">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="N3">
         <v>22</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>488</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>166</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q2">
         <v>484</v>
@@ -996,37 +996,37 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G3">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J3">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="M3">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="N3">
         <v>24</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>476</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L2">
         <v>61</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1368,7 +1368,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
